--- a/quiz/ScalingQuiz.xlsx
+++ b/quiz/ScalingQuiz.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
   <si>
     <t>Correct</t>
   </si>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,6 +687,86 @@
         <v>25</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
